--- a/biology/Biologie cellulaire et moléculaire/Oliver_Smithies/Oliver_Smithies.xlsx
+++ b/biology/Biologie cellulaire et moléculaire/Oliver_Smithies/Oliver_Smithies.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Oliver Smithies est un généticien américain d'origine britannique qui a obtenu le prix Nobel de physiologie ou médecine en 2007 pour des travaux sur les cellules souches en collaboration avec l'Américain Mario Capecchi et le Britannique Martin Evans, né le 23 juin 1925 à Halifax (Yorkshire de l'Ouest, Angleterre) et mort le 10 janvier 2017 à Chapel Hill (Caroline du Nord).
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Oliver Smithies a reçu en 2002 le prix Wolf de médecine puis en 2004, le prix Friedrich-Wilhelm-Bessel.
 </t>
@@ -543,6 +557,8 @@
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -569,6 +585,8 @@
         </is>
       </c>
       <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
